--- a/src/test/resources/ExcelData/Testdata.xlsx
+++ b/src/test/resources/ExcelData/Testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Va185060\OneDrive - NCR Corporation\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Va185060\eclipse-workspace\CompleteTest\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC10480AB1195C325BDE58F2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8A3BADAA-F91A-4386-B3DB-A7B782E8996C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB206013-0D7D-47ED-AC3A-5C40C553E0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4128" yWindow="3048" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>user</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>allu</t>
+  </si>
+  <si>
+    <t>Vidya</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>PEGA</t>
   </si>
 </sst>
 </file>
@@ -354,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,6 +390,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
